--- a/Incubyte Assessment.xlsx
+++ b/Incubyte Assessment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="163">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -778,6 +778,15 @@
     <t>The compose mail popup should be opened and all the elements are visible correctly</t>
   </si>
   <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>Validate whether user can perform undo and redo actions</t>
+  </si>
+  <si>
+    <t>• User should be logged in to gmail account</t>
+  </si>
+  <si>
     <t>Feature</t>
   </si>
   <si>
@@ -4647,9 +4656,15 @@
       <c r="X110" s="3"/>
     </row>
     <row r="111">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="A111" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="7"/>
@@ -27911,13 +27926,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -27975,13 +27990,13 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -28040,10 +28055,10 @@
     <row r="5">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -28102,10 +28117,10 @@
     <row r="7">
       <c r="A7" s="7"/>
       <c r="B7" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -28164,10 +28179,10 @@
     <row r="9">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -28226,10 +28241,10 @@
     <row r="11">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -28288,10 +28303,10 @@
     <row r="13">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -28350,10 +28365,10 @@
     <row r="15">
       <c r="A15" s="7"/>
       <c r="B15" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -28412,10 +28427,10 @@
     <row r="17">
       <c r="A17" s="7"/>
       <c r="B17" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -28474,10 +28489,10 @@
     <row r="19">
       <c r="A19" s="7"/>
       <c r="B19" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -28536,10 +28551,10 @@
     <row r="21">
       <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -28598,10 +28613,10 @@
     <row r="23">
       <c r="A23" s="7"/>
       <c r="B23" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -28660,10 +28675,10 @@
     <row r="25">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -28722,10 +28737,10 @@
     <row r="27">
       <c r="A27" s="7"/>
       <c r="B27" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -28784,10 +28799,10 @@
     <row r="29">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>

--- a/Incubyte Assessment.xlsx
+++ b/Incubyte Assessment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="171">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -309,8 +309,14 @@
     </r>
   </si>
   <si>
+    <t>Click on drive icon from the bottom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be able to open the google drive file dialogue box </t>
+  </si>
+  <si>
     <t>Select a file from the dialogue box. 
-For instace, select two images files</t>
+For instance, select two images files</t>
   </si>
   <si>
     <t>User should be able to select the files and that file should be visible at the bottom space</t>
@@ -785,6 +791,46 @@
   </si>
   <si>
     <t>• User should be logged in to gmail account</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Raleway"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Click on input field for sender email and input the email, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Raleway"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">test@incubyte.co </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Raleway"/>
+        <color theme="1"/>
+      </rPr>
+      <t>and press the enter button</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on the body section and input the following, 
+"QA test"</t>
+  </si>
+  <si>
+    <t>Now click on undo icon from the bottom</t>
+  </si>
+  <si>
+    <t>The subject should be cleared</t>
+  </si>
+  <si>
+    <t>Now click on redo icon from the bottom</t>
+  </si>
+  <si>
+    <t>The subject should be visible to the user</t>
   </si>
   <si>
     <t>Feature</t>
@@ -2244,10 +2290,10 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="7" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -2274,10 +2320,10 @@
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -2385,13 +2431,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>10</v>
@@ -2430,7 +2476,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="3"/>
       <c r="F38" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>19</v>
@@ -2460,10 +2506,10 @@
       <c r="D39" s="6"/>
       <c r="E39" s="3"/>
       <c r="F39" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
@@ -2490,10 +2536,10 @@
       <c r="D40" s="6"/>
       <c r="E40" s="3"/>
       <c r="F40" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
@@ -2661,13 +2707,13 @@
     </row>
     <row r="46">
       <c r="A46" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>10</v>
@@ -2706,7 +2752,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="3"/>
       <c r="F47" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>19</v>
@@ -2766,7 +2812,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>23</v>
@@ -2829,7 +2875,7 @@
         <v>26</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
@@ -2877,10 +2923,10 @@
     </row>
     <row r="53">
       <c r="A53" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>9</v>
@@ -2922,7 +2968,7 @@
       <c r="D54" s="6"/>
       <c r="E54" s="3"/>
       <c r="F54" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>19</v>
@@ -3012,10 +3058,10 @@
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
@@ -3042,10 +3088,10 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
@@ -3072,10 +3118,10 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
@@ -3149,13 +3195,13 @@
     </row>
     <row r="62">
       <c r="A62" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>10</v>
@@ -3194,7 +3240,7 @@
       <c r="D63" s="6"/>
       <c r="E63" s="3"/>
       <c r="F63" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>19</v>
@@ -3254,7 +3300,7 @@
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>23</v>
@@ -3284,10 +3330,10 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
@@ -3347,7 +3393,7 @@
         <v>26</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
@@ -3395,13 +3441,13 @@
     </row>
     <row r="70">
       <c r="A70" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>10</v>
@@ -3440,10 +3486,10 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
@@ -3517,10 +3563,10 @@
     </row>
     <row r="74">
       <c r="A74" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>9</v>
@@ -3562,7 +3608,7 @@
       <c r="D75" s="6"/>
       <c r="E75" s="3"/>
       <c r="F75" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>19</v>
@@ -3622,7 +3668,7 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>23</v>
@@ -3652,10 +3698,10 @@
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
@@ -3703,10 +3749,10 @@
     </row>
     <row r="80">
       <c r="A80" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>9</v>
@@ -3748,7 +3794,7 @@
       <c r="D81" s="6"/>
       <c r="E81" s="3"/>
       <c r="F81" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>19</v>
@@ -3808,7 +3854,7 @@
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>23</v>
@@ -3838,10 +3884,10 @@
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -3868,10 +3914,10 @@
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -3919,10 +3965,10 @@
     </row>
     <row r="87">
       <c r="A87" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>9</v>
@@ -3964,7 +4010,7 @@
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>19</v>
@@ -4024,7 +4070,7 @@
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>23</v>
@@ -4054,10 +4100,10 @@
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4084,10 +4130,10 @@
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -4114,10 +4160,10 @@
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4165,13 +4211,13 @@
     </row>
     <row r="95">
       <c r="A95" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D95" s="6" t="s">
         <v>10</v>
@@ -4210,10 +4256,10 @@
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -4287,10 +4333,10 @@
     </row>
     <row r="99">
       <c r="A99" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>9</v>
@@ -4332,7 +4378,7 @@
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>19</v>
@@ -4422,10 +4468,10 @@
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -4452,10 +4498,10 @@
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G104" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
@@ -4482,10 +4528,10 @@
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -4533,13 +4579,13 @@
     </row>
     <row r="107">
       <c r="A107" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>10</v>
@@ -4576,10 +4622,10 @@
       <c r="D108" s="6"/>
       <c r="E108" s="6"/>
       <c r="F108" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -4606,10 +4652,10 @@
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
       <c r="F109" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -4657,18 +4703,26 @@
     </row>
     <row r="111">
       <c r="A111" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
+      <c r="D111" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="3"/>
@@ -4693,8 +4747,12 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
+      <c r="F112" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G112" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -4719,8 +4777,12 @@
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
+      <c r="F113" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="3"/>
@@ -4745,8 +4807,12 @@
       <c r="C114" s="5"/>
       <c r="D114" s="6"/>
       <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
+      <c r="F114" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G114" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -4771,8 +4837,12 @@
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="6"/>
-      <c r="F115" s="5"/>
-      <c r="G115" s="5"/>
+      <c r="F115" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>136</v>
+      </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>
@@ -4797,8 +4867,12 @@
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="6"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
+      <c r="F116" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3"/>
@@ -27926,13 +28000,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -27990,13 +28064,13 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -28053,12 +28127,14 @@
       <c r="AA4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="7"/>
+      <c r="A5" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B5" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -28115,12 +28191,14 @@
       <c r="AA6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B7" s="7" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -28177,12 +28255,14 @@
       <c r="AA8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B9" s="7" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -28239,12 +28319,14 @@
       <c r="AA10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B11" s="7" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -28301,12 +28383,14 @@
       <c r="AA12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -28363,12 +28447,14 @@
       <c r="AA14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B15" s="7" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -28425,12 +28511,14 @@
       <c r="AA16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="7"/>
+      <c r="A17" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B17" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -28487,12 +28575,14 @@
       <c r="AA18" s="3"/>
     </row>
     <row r="19">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B19" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -28549,12 +28639,14 @@
       <c r="AA20" s="3"/>
     </row>
     <row r="21">
-      <c r="A21" s="7"/>
+      <c r="A21" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B21" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -28611,12 +28703,14 @@
       <c r="AA22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B23" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -28673,12 +28767,14 @@
       <c r="AA24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B25" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -28735,12 +28831,14 @@
       <c r="AA26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="7"/>
+      <c r="A27" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B27" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -28797,12 +28895,14 @@
       <c r="AA28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="7"/>
+      <c r="A29" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="B29" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>

--- a/Incubyte Assessment.xlsx
+++ b/Incubyte Assessment.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="180">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -833,6 +833,75 @@
     <t>The subject should be visible to the user</t>
   </si>
   <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>Validate whether user can not send mail to the recipient email address that doesn’t exist</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Raleway"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Click on input field for sender email and input the email, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Raleway"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">noreply@incubyte.co </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Raleway"/>
+        <color theme="1"/>
+      </rPr>
+      <t>and press the enter button</t>
+    </r>
+  </si>
+  <si>
+    <t>User should be able to receive a mail in the same thread that reads, "Address not found"</t>
+  </si>
+  <si>
+    <t>Validate the gmail behaviour on sending an email without an internet</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Raleway"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Click on input field for sender email and input the email, </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Raleway"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">noreply@incubyte.co </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Raleway"/>
+        <color theme="1"/>
+      </rPr>
+      <t>and press the enter button</t>
+    </r>
+  </si>
+  <si>
+    <t>Now turn off the network</t>
+  </si>
+  <si>
+    <t>User should be able to turn off the internet</t>
+  </si>
+  <si>
+    <t>An error message should receive the error message at header that reads, not connected</t>
+  </si>
+  <si>
     <t>Feature</t>
   </si>
   <si>
@@ -4918,13 +4987,27 @@
       <c r="X117" s="3"/>
     </row>
     <row r="118">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
+      <c r="A118" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -4949,8 +5032,12 @@
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
+      <c r="F119" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G119" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="3"/>
@@ -4975,8 +5062,12 @@
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
+      <c r="F120" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="3"/>
@@ -5001,8 +5092,12 @@
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
+      <c r="F121" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
@@ -5027,8 +5122,12 @@
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
+      <c r="F122" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="3"/>
@@ -5074,13 +5173,27 @@
       <c r="X123" s="3"/>
     </row>
     <row r="124">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="5"/>
+      <c r="A124" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="3"/>
@@ -5105,8 +5218,12 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
+      <c r="F125" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="3"/>
@@ -5131,8 +5248,12 @@
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
+      <c r="F126" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="3"/>
@@ -5157,8 +5278,12 @@
       <c r="C127" s="5"/>
       <c r="D127" s="6"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
+      <c r="F127" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G127" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="3"/>
@@ -5183,8 +5308,12 @@
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="6"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
+      <c r="F128" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="3"/>
@@ -5209,8 +5338,12 @@
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
+      <c r="F129" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>147</v>
+      </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="3"/>
@@ -28000,13 +28133,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
@@ -28064,13 +28197,13 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -28128,13 +28261,13 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -28192,13 +28325,13 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -28256,13 +28389,13 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -28320,13 +28453,13 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -28384,13 +28517,13 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -28448,13 +28581,13 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -28512,13 +28645,13 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -28576,13 +28709,13 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -28640,13 +28773,13 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -28704,13 +28837,13 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -28768,13 +28901,13 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -28832,13 +28965,13 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -28896,13 +29029,13 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
